--- a/REGULAR/RE-ENCODE/DIMAPILIS, MA.TRINIDAD S..xlsx
+++ b/REGULAR/RE-ENCODE/DIMAPILIS, MA.TRINIDAD S..xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
   <si>
     <t>PERIOD</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>9/1,8</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>NUTRITION</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,9 +1127,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1141,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,13 +1188,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,22 +1202,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1489,6 +1491,22 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1628,7 +1646,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1689,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1753,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1813,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1879,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1942,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2040,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2099,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2164,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2207,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2282,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2468,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2534,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2592,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2658,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2714,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2789,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2832,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2898,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2954,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3052,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3115,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,25 +3181,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K294" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K310" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
     <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="0"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="17">
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3193,13 +3211,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="6">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3208,14 +3226,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3529,7 +3547,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3541,87 +3559,89 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K294"/>
+  <dimension ref="A2:K310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A266" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
+      <pane ySplit="3690" topLeftCell="A292" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3629,7 +3649,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3642,24 +3662,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3703,7 +3723,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.355999999999966</v>
+        <v>53.105999999999966</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3713,13 +3733,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>300.67</v>
+        <v>339.42</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3740,7 +3760,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>38718</v>
       </c>
@@ -3764,7 +3784,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>38749</v>
       </c>
@@ -3788,7 +3808,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>38777</v>
       </c>
@@ -3808,7 +3828,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38808</v>
       </c>
@@ -3832,13 +3852,13 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
@@ -3852,13 +3872,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -3872,13 +3892,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="61"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13" t="str">
@@ -3892,7 +3912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>38838</v>
       </c>
@@ -3916,7 +3936,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>38869</v>
       </c>
@@ -3926,21 +3946,21 @@
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="42">
         <v>2.7189999999999999</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="43"/>
+      <c r="G19" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="42"/>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38899</v>
       </c>
@@ -3964,7 +3984,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>38930</v>
       </c>
@@ -3990,13 +4010,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="61">
+      <c r="D22" s="48">
         <v>0.88100000000000001</v>
       </c>
       <c r="E22" s="9"/>
@@ -4010,7 +4030,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>38961</v>
       </c>
@@ -4034,7 +4054,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>38991</v>
       </c>
@@ -4056,17 +4076,17 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="62">
+      <c r="K24" s="49">
         <v>45209</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="61">
+      <c r="D25" s="48">
         <v>2.5539999999999998</v>
       </c>
       <c r="E25" s="9"/>
@@ -4080,7 +4100,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>39022</v>
       </c>
@@ -4104,7 +4124,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>39052</v>
       </c>
@@ -4130,13 +4150,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="61">
+      <c r="D28" s="48">
         <v>0.83299999999999996</v>
       </c>
       <c r="E28" s="9"/>
@@ -4150,8 +4170,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="20"/>
@@ -4172,7 +4192,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>39083</v>
       </c>
@@ -4194,11 +4214,11 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="62">
+      <c r="K30" s="49">
         <v>44953</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>39114</v>
       </c>
@@ -4222,13 +4242,13 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="61">
+      <c r="D32" s="48">
         <v>2.5790000000000002</v>
       </c>
       <c r="E32" s="9"/>
@@ -4242,7 +4262,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>39142</v>
       </c>
@@ -4264,17 +4284,17 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="62">
+      <c r="K33" s="49">
         <v>45004</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="61"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
@@ -4288,13 +4308,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="61">
+      <c r="D35" s="48">
         <v>1.65</v>
       </c>
       <c r="E35" s="9"/>
@@ -4308,7 +4328,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>39173</v>
       </c>
@@ -4332,13 +4352,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="61"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -4352,13 +4372,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="61">
+      <c r="D38" s="48">
         <v>0.34399999999999997</v>
       </c>
       <c r="E38" s="9"/>
@@ -4372,7 +4392,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>39203</v>
       </c>
@@ -4382,7 +4402,7 @@
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="48">
         <v>2.7519999999999998</v>
       </c>
       <c r="E39" s="9"/>
@@ -4396,7 +4416,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>39234</v>
       </c>
@@ -4420,7 +4440,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>39264</v>
       </c>
@@ -4444,7 +4464,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>39295</v>
       </c>
@@ -4470,13 +4490,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="61">
+      <c r="D43" s="48">
         <v>2.9369999999999998</v>
       </c>
       <c r="E43" s="9"/>
@@ -4490,7 +4510,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>39326</v>
       </c>
@@ -4514,7 +4534,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>39356</v>
       </c>
@@ -4538,7 +4558,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>39387</v>
       </c>
@@ -4564,13 +4584,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="61">
+      <c r="D47" s="48">
         <v>3.4689999999999999</v>
       </c>
       <c r="E47" s="9"/>
@@ -4584,7 +4604,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>39417</v>
       </c>
@@ -4608,13 +4628,13 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="61">
+      <c r="D49" s="48">
         <v>3.4689999999999999</v>
       </c>
       <c r="E49" s="9"/>
@@ -4628,8 +4648,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="20"/>
@@ -4650,7 +4670,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>39448</v>
       </c>
@@ -4674,13 +4694,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="61">
+      <c r="D52" s="48">
         <v>2.742</v>
       </c>
       <c r="E52" s="9"/>
@@ -4694,7 +4714,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>39479</v>
       </c>
@@ -4718,7 +4738,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>39508</v>
       </c>
@@ -4742,13 +4762,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="61"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -4762,13 +4782,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="61">
+      <c r="D56" s="48">
         <v>2.512</v>
       </c>
       <c r="E56" s="9"/>
@@ -4782,7 +4802,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>39539</v>
       </c>
@@ -4802,7 +4822,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>39569</v>
       </c>
@@ -4826,7 +4846,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>39600</v>
       </c>
@@ -4848,17 +4868,17 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="62">
+      <c r="K59" s="49">
         <v>45094</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="61">
+      <c r="D60" s="48">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E60" s="9"/>
@@ -4872,7 +4892,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39630</v>
       </c>
@@ -4892,7 +4912,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>39661</v>
       </c>
@@ -4916,7 +4936,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>39692</v>
       </c>
@@ -4940,7 +4960,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>39722</v>
       </c>
@@ -4964,7 +4984,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>39753</v>
       </c>
@@ -4988,7 +5008,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39783</v>
       </c>
@@ -5012,13 +5032,13 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="61">
+      <c r="D67" s="48">
         <v>9.4E-2</v>
       </c>
       <c r="E67" s="9"/>
@@ -5032,8 +5052,8 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="60" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="20"/>
@@ -5054,7 +5074,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39814</v>
       </c>
@@ -5078,7 +5098,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39845</v>
       </c>
@@ -5102,7 +5122,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>39873</v>
       </c>
@@ -5126,7 +5146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>39904</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39934</v>
       </c>
@@ -5176,13 +5196,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="61"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
@@ -5196,7 +5216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>39965</v>
       </c>
@@ -5216,7 +5236,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>39995</v>
       </c>
@@ -5236,7 +5256,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>40026</v>
       </c>
@@ -5256,7 +5276,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>40057</v>
       </c>
@@ -5282,7 +5302,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>40087</v>
       </c>
@@ -5302,7 +5322,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>40118</v>
       </c>
@@ -5328,7 +5348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>40148</v>
       </c>
@@ -5352,8 +5372,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="60" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B82" s="20"/>
@@ -5374,7 +5394,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>40179</v>
       </c>
@@ -5394,7 +5414,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>40210</v>
       </c>
@@ -5414,7 +5434,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>40238</v>
       </c>
@@ -5438,7 +5458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>40269</v>
       </c>
@@ -5458,7 +5478,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>40299</v>
       </c>
@@ -5478,11 +5498,11 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="62">
+      <c r="K87" s="49">
         <v>45063</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>40330</v>
       </c>
@@ -5504,7 +5524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>40360</v>
       </c>
@@ -5526,17 +5546,17 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="62">
+      <c r="K89" s="49">
         <v>45142</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="61"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5550,13 +5570,13 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="61"/>
+      <c r="D91" s="48"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5568,7 +5588,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>40391</v>
       </c>
@@ -5594,7 +5614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>40422</v>
       </c>
@@ -5616,17 +5636,17 @@
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="62">
+      <c r="K93" s="49">
         <v>45172</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="61"/>
+      <c r="D94" s="48"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -5638,17 +5658,17 @@
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="62">
+      <c r="K94" s="49">
         <v>45200</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="61">
+      <c r="D95" s="48">
         <v>1.2849999999999999</v>
       </c>
       <c r="E95" s="9"/>
@@ -5662,7 +5682,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>40452</v>
       </c>
@@ -5682,17 +5702,17 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="62">
+      <c r="K96" s="49">
         <v>45232</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="61"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -5704,7 +5724,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>40483</v>
       </c>
@@ -5726,11 +5746,11 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="62">
+      <c r="K98" s="49">
         <v>45248</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>109</v>
@@ -5752,7 +5772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>116</v>
@@ -5772,7 +5792,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>40513</v>
       </c>
@@ -5796,8 +5816,8 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="60" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="20"/>
@@ -5818,7 +5838,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>40544</v>
       </c>
@@ -5842,7 +5862,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>40575</v>
       </c>
@@ -5866,7 +5886,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>40603</v>
       </c>
@@ -5890,7 +5910,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>40634</v>
       </c>
@@ -5914,13 +5934,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C107" s="13"/>
-      <c r="D107" s="61"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
@@ -5932,11 +5952,11 @@
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="62">
+      <c r="K107" s="49">
         <v>45032</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>40664</v>
       </c>
@@ -5960,13 +5980,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="61">
+      <c r="D109" s="48">
         <v>1.2709999999999999</v>
       </c>
       <c r="E109" s="9"/>
@@ -5980,7 +6000,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>40695</v>
       </c>
@@ -6006,7 +6026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40725</v>
       </c>
@@ -6016,7 +6036,7 @@
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
-      <c r="D111" s="61">
+      <c r="D111" s="48">
         <v>0.82299999999999995</v>
       </c>
       <c r="E111" s="9"/>
@@ -6032,7 +6052,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>40756</v>
       </c>
@@ -6058,7 +6078,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>40787</v>
       </c>
@@ -6082,7 +6102,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>40817</v>
       </c>
@@ -6108,7 +6128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>132</v>
@@ -6128,7 +6148,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40848</v>
       </c>
@@ -6152,7 +6172,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40878</v>
       </c>
@@ -6178,13 +6198,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="61">
+      <c r="D118" s="48">
         <v>1.1919999999999999</v>
       </c>
       <c r="E118" s="9"/>
@@ -6198,8 +6218,8 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B119" s="20"/>
@@ -6220,7 +6240,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>40909</v>
       </c>
@@ -6242,17 +6262,17 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="62">
+      <c r="K120" s="49">
         <v>44946</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C121" s="13"/>
-      <c r="D121" s="61"/>
+      <c r="D121" s="48"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -6266,13 +6286,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C122" s="13"/>
-      <c r="D122" s="61">
+      <c r="D122" s="48">
         <v>0.93500000000000005</v>
       </c>
       <c r="E122" s="9"/>
@@ -6286,7 +6306,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40940</v>
       </c>
@@ -6310,7 +6330,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40969</v>
       </c>
@@ -6332,17 +6352,17 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="62">
+      <c r="K124" s="49">
         <v>45004</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C125" s="13"/>
-      <c r="D125" s="61">
+      <c r="D125" s="48">
         <v>1.546</v>
       </c>
       <c r="E125" s="9"/>
@@ -6356,7 +6376,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>41000</v>
       </c>
@@ -6378,17 +6398,17 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="62">
+      <c r="K126" s="49">
         <v>45036</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C127" s="13"/>
-      <c r="D127" s="61"/>
+      <c r="D127" s="48"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
@@ -6402,13 +6422,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C128" s="13"/>
-      <c r="D128" s="61">
+      <c r="D128" s="48">
         <v>2.375</v>
       </c>
       <c r="E128" s="9"/>
@@ -6422,7 +6442,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>41030</v>
       </c>
@@ -6446,7 +6466,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>41061</v>
       </c>
@@ -6470,7 +6490,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>41091</v>
       </c>
@@ -6494,7 +6514,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>41122</v>
       </c>
@@ -6518,7 +6538,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>41153</v>
       </c>
@@ -6542,7 +6562,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>41183</v>
       </c>
@@ -6566,7 +6586,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>41214</v>
       </c>
@@ -6590,7 +6610,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>41244</v>
       </c>
@@ -6614,13 +6634,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C137" s="13"/>
-      <c r="D137" s="61">
+      <c r="D137" s="48">
         <v>1.429</v>
       </c>
       <c r="E137" s="9"/>
@@ -6634,8 +6654,8 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="60" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B138" s="20"/>
@@ -6656,7 +6676,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>41275</v>
       </c>
@@ -6678,13 +6698,13 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C140" s="13"/>
-      <c r="D140" s="61">
+      <c r="D140" s="48">
         <v>1.321</v>
       </c>
       <c r="E140" s="9"/>
@@ -6698,7 +6718,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>41306</v>
       </c>
@@ -6718,7 +6738,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>41334</v>
       </c>
@@ -6744,13 +6764,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C143" s="13"/>
-      <c r="D143" s="61"/>
+      <c r="D143" s="48"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
       <c r="G143" s="13" t="str">
@@ -6764,13 +6784,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C144" s="13"/>
-      <c r="D144" s="61"/>
+      <c r="D144" s="48"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
       <c r="G144" s="13" t="str">
@@ -6784,7 +6804,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>41365</v>
       </c>
@@ -6808,7 +6828,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>41395</v>
       </c>
@@ -6832,7 +6852,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>41426</v>
       </c>
@@ -6856,7 +6876,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>41456</v>
       </c>
@@ -6880,7 +6900,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>41487</v>
       </c>
@@ -6904,7 +6924,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>41518</v>
       </c>
@@ -6930,7 +6950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>41548</v>
       </c>
@@ -6954,7 +6974,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>41579</v>
       </c>
@@ -6976,17 +6996,17 @@
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="62">
+      <c r="K152" s="49">
         <v>45235</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C153" s="13"/>
-      <c r="D153" s="61">
+      <c r="D153" s="48">
         <v>2.3439999999999999</v>
       </c>
       <c r="E153" s="9"/>
@@ -7000,7 +7020,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>41609</v>
       </c>
@@ -7022,17 +7042,17 @@
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="62">
+      <c r="K154" s="49">
         <v>45273</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C155" s="13"/>
-      <c r="D155" s="61">
+      <c r="D155" s="48">
         <v>4</v>
       </c>
       <c r="E155" s="9"/>
@@ -7048,13 +7068,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C156" s="13"/>
-      <c r="D156" s="61">
+      <c r="D156" s="48">
         <v>2.423</v>
       </c>
       <c r="E156" s="9"/>
@@ -7068,13 +7088,13 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="60" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
-      <c r="D157" s="61"/>
+      <c r="D157" s="48"/>
       <c r="E157" s="34" t="s">
         <v>32</v>
       </c>
@@ -7090,7 +7110,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>41640</v>
       </c>
@@ -7114,7 +7134,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>41671</v>
       </c>
@@ -7140,13 +7160,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>173</v>
       </c>
       <c r="C160" s="13"/>
-      <c r="D160" s="61">
+      <c r="D160" s="48">
         <v>0.68700000000000006</v>
       </c>
       <c r="E160" s="9"/>
@@ -7160,7 +7180,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>41699</v>
       </c>
@@ -7180,7 +7200,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>41730</v>
       </c>
@@ -7204,7 +7224,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>41760</v>
       </c>
@@ -7228,7 +7248,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41791</v>
       </c>
@@ -7252,13 +7272,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>176</v>
       </c>
       <c r="C165" s="13"/>
-      <c r="D165" s="61">
+      <c r="D165" s="48">
         <v>3.5289999999999999</v>
       </c>
       <c r="E165" s="9"/>
@@ -7272,7 +7292,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>41821</v>
       </c>
@@ -7296,7 +7316,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41852</v>
       </c>
@@ -7320,7 +7340,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41883</v>
       </c>
@@ -7346,13 +7366,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>179</v>
       </c>
       <c r="C169" s="13"/>
-      <c r="D169" s="61">
+      <c r="D169" s="48">
         <v>2.2000000000000002</v>
       </c>
       <c r="E169" s="9"/>
@@ -7366,7 +7386,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41913</v>
       </c>
@@ -7392,13 +7412,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="61"/>
+      <c r="D171" s="48"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -7412,13 +7432,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C172" s="13"/>
-      <c r="D172" s="61">
+      <c r="D172" s="48">
         <v>2.569</v>
       </c>
       <c r="E172" s="9"/>
@@ -7432,7 +7452,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41944</v>
       </c>
@@ -7456,7 +7476,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41974</v>
       </c>
@@ -7482,13 +7502,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="61"/>
+      <c r="D175" s="48"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
       <c r="G175" s="13" t="str">
@@ -7500,17 +7520,17 @@
       </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="62">
+      <c r="K175" s="49">
         <v>45289</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C176" s="13"/>
-      <c r="D176" s="61">
+      <c r="D176" s="48">
         <v>5.492</v>
       </c>
       <c r="E176" s="9"/>
@@ -7522,15 +7542,15 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="62"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="60" t="s">
+      <c r="K176" s="49"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="47" t="s">
         <v>154</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
-      <c r="D177" s="61"/>
+      <c r="D177" s="48"/>
       <c r="E177" s="34" t="s">
         <v>32</v>
       </c>
@@ -7546,7 +7566,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>42005</v>
       </c>
@@ -7570,7 +7590,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>42036</v>
       </c>
@@ -7594,13 +7614,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>190</v>
       </c>
       <c r="C180" s="13"/>
-      <c r="D180" s="61">
+      <c r="D180" s="48">
         <v>1.002</v>
       </c>
       <c r="E180" s="9"/>
@@ -7614,7 +7634,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>42064</v>
       </c>
@@ -7634,7 +7654,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>42095</v>
       </c>
@@ -7658,7 +7678,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>42125</v>
       </c>
@@ -7682,7 +7702,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>42156</v>
       </c>
@@ -7702,7 +7722,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>42186</v>
       </c>
@@ -7722,7 +7742,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>42217</v>
       </c>
@@ -7746,7 +7766,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>42248</v>
       </c>
@@ -7770,7 +7790,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>42278</v>
       </c>
@@ -7798,7 +7818,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>42309</v>
       </c>
@@ -7824,13 +7844,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="61">
+      <c r="D190" s="48">
         <v>2.996</v>
       </c>
       <c r="E190" s="9"/>
@@ -7846,7 +7866,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>42339</v>
       </c>
@@ -7856,7 +7876,7 @@
       <c r="C191" s="13">
         <v>1.25</v>
       </c>
-      <c r="D191" s="61">
+      <c r="D191" s="48">
         <v>1.075</v>
       </c>
       <c r="E191" s="9"/>
@@ -7870,13 +7890,13 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="60" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="47" t="s">
         <v>155</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
-      <c r="D192" s="61"/>
+      <c r="D192" s="48"/>
       <c r="E192" s="34" t="s">
         <v>32</v>
       </c>
@@ -7892,7 +7912,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>42370</v>
       </c>
@@ -7902,7 +7922,7 @@
       <c r="C193" s="13">
         <v>1.25</v>
       </c>
-      <c r="D193" s="61">
+      <c r="D193" s="48">
         <v>0.84799999999999998</v>
       </c>
       <c r="E193" s="9"/>
@@ -7916,7 +7936,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>42401</v>
       </c>
@@ -7924,7 +7944,7 @@
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
-      <c r="D194" s="61"/>
+      <c r="D194" s="48"/>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
       <c r="G194" s="13">
@@ -7936,7 +7956,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>42430</v>
       </c>
@@ -7944,7 +7964,7 @@
       <c r="C195" s="13">
         <v>1.25</v>
       </c>
-      <c r="D195" s="61"/>
+      <c r="D195" s="48"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
       <c r="G195" s="13">
@@ -7956,7 +7976,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>42461</v>
       </c>
@@ -7966,7 +7986,7 @@
       <c r="C196" s="13">
         <v>1.25</v>
       </c>
-      <c r="D196" s="61">
+      <c r="D196" s="48">
         <v>3.012</v>
       </c>
       <c r="E196" s="9"/>
@@ -7980,7 +8000,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>42491</v>
       </c>
@@ -7990,7 +8010,7 @@
       <c r="C197" s="13">
         <v>1.25</v>
       </c>
-      <c r="D197" s="61"/>
+      <c r="D197" s="48"/>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
       <c r="G197" s="13">
@@ -8004,13 +8024,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="61">
+      <c r="D198" s="48">
         <v>3.36</v>
       </c>
       <c r="E198" s="9"/>
@@ -8024,7 +8044,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>42522</v>
       </c>
@@ -8034,7 +8054,7 @@
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
-      <c r="D199" s="61">
+      <c r="D199" s="48">
         <v>1.7330000000000001</v>
       </c>
       <c r="E199" s="9"/>
@@ -8048,7 +8068,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>42552</v>
       </c>
@@ -8056,7 +8076,7 @@
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
-      <c r="D200" s="61"/>
+      <c r="D200" s="48"/>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
       <c r="G200" s="13">
@@ -8068,7 +8088,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>42583</v>
       </c>
@@ -8078,7 +8098,7 @@
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
-      <c r="D201" s="61">
+      <c r="D201" s="48">
         <v>1.762</v>
       </c>
       <c r="E201" s="9"/>
@@ -8092,7 +8112,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42614</v>
       </c>
@@ -8102,7 +8122,7 @@
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
-      <c r="D202" s="61"/>
+      <c r="D202" s="48"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
       <c r="G202" s="13">
@@ -8116,7 +8136,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>94</v>
@@ -8134,11 +8154,11 @@
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="62">
+      <c r="K203" s="49">
         <v>45183</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>54</v>
@@ -8158,7 +8178,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>204</v>
@@ -8178,7 +8198,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>42644</v>
       </c>
@@ -8198,7 +8218,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>42675</v>
       </c>
@@ -8222,7 +8242,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42705</v>
       </c>
@@ -8246,7 +8266,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>206</v>
@@ -8268,7 +8288,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>96</v>
@@ -8288,8 +8308,8 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="60" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B211" s="20"/>
@@ -8310,7 +8330,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>42736</v>
       </c>
@@ -8332,13 +8352,13 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>213</v>
       </c>
       <c r="C213" s="13"/>
-      <c r="D213" s="61">
+      <c r="D213" s="48">
         <v>0.85</v>
       </c>
       <c r="E213" s="34" t="s">
@@ -8358,7 +8378,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>42767</v>
       </c>
@@ -8382,7 +8402,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42795</v>
       </c>
@@ -8406,7 +8426,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42826</v>
       </c>
@@ -8426,7 +8446,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42856</v>
       </c>
@@ -8446,7 +8466,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42887</v>
       </c>
@@ -8466,7 +8486,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42917</v>
       </c>
@@ -8486,7 +8506,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42948</v>
       </c>
@@ -8510,7 +8530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42979</v>
       </c>
@@ -8530,7 +8550,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>43009</v>
       </c>
@@ -8550,7 +8570,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>43040</v>
       </c>
@@ -8572,11 +8592,11 @@
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="62">
+      <c r="K223" s="49">
         <v>45258</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>43070</v>
       </c>
@@ -8600,13 +8620,13 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="60" t="s">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="47" t="s">
         <v>210</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
-      <c r="D225" s="61"/>
+      <c r="D225" s="48"/>
       <c r="E225" s="34" t="s">
         <v>32</v>
       </c>
@@ -8622,7 +8642,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>43101</v>
       </c>
@@ -8630,7 +8650,7 @@
       <c r="C226" s="13">
         <v>1.25</v>
       </c>
-      <c r="D226" s="61"/>
+      <c r="D226" s="48"/>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
       <c r="G226" s="13">
@@ -8642,7 +8662,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>43132</v>
       </c>
@@ -8650,7 +8670,7 @@
       <c r="C227" s="13">
         <v>1.25</v>
       </c>
-      <c r="D227" s="61"/>
+      <c r="D227" s="48"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
       <c r="G227" s="13">
@@ -8662,7 +8682,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>43160</v>
       </c>
@@ -8672,7 +8692,7 @@
       <c r="C228" s="13">
         <v>1.25</v>
       </c>
-      <c r="D228" s="61"/>
+      <c r="D228" s="48"/>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
       <c r="G228" s="13">
@@ -8686,7 +8706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>43191</v>
       </c>
@@ -8694,7 +8714,7 @@
       <c r="C229" s="13">
         <v>1.25</v>
       </c>
-      <c r="D229" s="61"/>
+      <c r="D229" s="48"/>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
       <c r="G229" s="13">
@@ -8706,7 +8726,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>43221</v>
       </c>
@@ -8716,7 +8736,7 @@
       <c r="C230" s="13">
         <v>1.25</v>
       </c>
-      <c r="D230" s="61"/>
+      <c r="D230" s="48"/>
       <c r="E230" s="9"/>
       <c r="F230" s="20"/>
       <c r="G230" s="13">
@@ -8730,13 +8750,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C231" s="13"/>
-      <c r="D231" s="61"/>
+      <c r="D231" s="48"/>
       <c r="E231" s="34" t="s">
         <v>32</v>
       </c>
@@ -8752,11 +8772,11 @@
         <v>32</v>
       </c>
       <c r="J231" s="11"/>
-      <c r="K231" s="62">
+      <c r="K231" s="49">
         <v>45063</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>43252</v>
       </c>
@@ -8766,7 +8786,7 @@
       <c r="C232" s="13">
         <v>1.25</v>
       </c>
-      <c r="D232" s="61"/>
+      <c r="D232" s="48"/>
       <c r="E232" s="9"/>
       <c r="F232" s="20"/>
       <c r="G232" s="13">
@@ -8778,17 +8798,17 @@
       </c>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="62">
+      <c r="K232" s="49">
         <v>45090</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C233" s="13"/>
-      <c r="D233" s="61"/>
+      <c r="D233" s="48"/>
       <c r="E233" s="34" t="s">
         <v>32</v>
       </c>
@@ -8808,13 +8828,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="61">
+      <c r="D234" s="48">
         <v>3.5019999999999998</v>
       </c>
       <c r="E234" s="34"/>
@@ -8828,7 +8848,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>43282</v>
       </c>
@@ -8836,7 +8856,7 @@
       <c r="C235" s="13">
         <v>1.25</v>
       </c>
-      <c r="D235" s="61"/>
+      <c r="D235" s="48"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
       <c r="G235" s="13">
@@ -8848,7 +8868,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43313</v>
       </c>
@@ -8856,7 +8876,7 @@
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
-      <c r="D236" s="61"/>
+      <c r="D236" s="48"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
       <c r="G236" s="13">
@@ -8868,7 +8888,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>43344</v>
       </c>
@@ -8878,7 +8898,7 @@
       <c r="C237" s="13">
         <v>1.25</v>
       </c>
-      <c r="D237" s="61"/>
+      <c r="D237" s="48"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
       <c r="G237" s="13">
@@ -8890,11 +8910,11 @@
       </c>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="62">
+      <c r="K237" s="49">
         <v>45188</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>43374</v>
       </c>
@@ -8904,7 +8924,7 @@
       <c r="C238" s="13">
         <v>1.25</v>
       </c>
-      <c r="D238" s="61">
+      <c r="D238" s="48">
         <v>2.0310000000000001</v>
       </c>
       <c r="E238" s="9"/>
@@ -8918,7 +8938,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>43405</v>
       </c>
@@ -8926,7 +8946,7 @@
       <c r="C239" s="13">
         <v>1.25</v>
       </c>
-      <c r="D239" s="61"/>
+      <c r="D239" s="48"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
       <c r="G239" s="13">
@@ -8938,7 +8958,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>43435</v>
       </c>
@@ -8964,7 +8984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>221</v>
@@ -8986,7 +9006,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9006,13 +9026,13 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>222</v>
       </c>
       <c r="C243" s="13"/>
-      <c r="D243" s="61">
+      <c r="D243" s="48">
         <v>0.5</v>
       </c>
       <c r="E243" s="9"/>
@@ -9026,8 +9046,8 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="60" t="s">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B244" s="20"/>
@@ -9048,7 +9068,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43466</v>
       </c>
@@ -9074,13 +9094,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C246" s="13"/>
-      <c r="D246" s="61"/>
+      <c r="D246" s="48"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
       <c r="G246" s="13" t="str">
@@ -9096,13 +9116,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C247" s="13"/>
-      <c r="D247" s="61"/>
+      <c r="D247" s="48"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
       <c r="G247" s="13" t="str">
@@ -9114,17 +9134,17 @@
       </c>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="62">
+      <c r="K247" s="49">
         <v>44948</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C248" s="13"/>
-      <c r="D248" s="61"/>
+      <c r="D248" s="48"/>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
       <c r="G248" s="13" t="str">
@@ -9138,11 +9158,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
-      <c r="D249" s="61"/>
+      <c r="D249" s="48"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
       <c r="G249" s="13" t="str">
@@ -9154,7 +9174,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>43497</v>
       </c>
@@ -9174,7 +9194,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>43525</v>
       </c>
@@ -9196,17 +9216,17 @@
       </c>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="62">
+      <c r="K251" s="49">
         <v>44986</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="61"/>
+      <c r="D252" s="48"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
       <c r="G252" s="13" t="str">
@@ -9222,7 +9242,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>230</v>
@@ -9244,13 +9264,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C254" s="13"/>
-      <c r="D254" s="61"/>
+      <c r="D254" s="48"/>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
       <c r="G254" s="13" t="str">
@@ -9262,11 +9282,11 @@
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="62">
+      <c r="K254" s="49">
         <v>45004</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43556</v>
       </c>
@@ -9292,7 +9312,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>43586</v>
       </c>
@@ -9312,11 +9332,11 @@
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="62">
+      <c r="K256" s="49">
         <v>45063</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43617</v>
       </c>
@@ -9336,7 +9356,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>43647</v>
       </c>
@@ -9356,7 +9376,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43678</v>
       </c>
@@ -9376,7 +9396,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43709</v>
       </c>
@@ -9402,7 +9422,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>43739</v>
       </c>
@@ -9422,7 +9442,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>43770</v>
       </c>
@@ -9442,7 +9462,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43800</v>
       </c>
@@ -9472,8 +9492,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" s="60" t="s">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="47" t="s">
         <v>212</v>
       </c>
       <c r="B264" s="20"/>
@@ -9494,7 +9514,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>43831</v>
       </c>
@@ -9514,7 +9534,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>43862</v>
       </c>
@@ -9534,7 +9554,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43891</v>
       </c>
@@ -9554,7 +9574,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>43922</v>
       </c>
@@ -9574,7 +9594,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43952</v>
       </c>
@@ -9594,7 +9614,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>43983</v>
       </c>
@@ -9618,7 +9638,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>44013</v>
       </c>
@@ -9638,7 +9658,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>44044</v>
       </c>
@@ -9658,7 +9678,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44075</v>
       </c>
@@ -9668,7 +9688,7 @@
       <c r="C273" s="13">
         <v>1.25</v>
       </c>
-      <c r="D273" s="39"/>
+      <c r="D273" s="62"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
       <c r="G273" s="13">
@@ -9684,65 +9704,73 @@
         <v>238</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44105</v>
       </c>
       <c r="B274" s="20"/>
-      <c r="C274" s="13"/>
-      <c r="D274" s="39"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D274" s="62"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>44136</v>
       </c>
       <c r="B275" s="20"/>
-      <c r="C275" s="13"/>
-      <c r="D275" s="39"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D275" s="62"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>44166</v>
       </c>
       <c r="B276" s="20"/>
-      <c r="C276" s="13"/>
-      <c r="D276" s="39"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D276" s="62"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="47" t="s">
+        <v>239</v>
+      </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
-      <c r="D277" s="61"/>
+      <c r="D277" s="62"/>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
       <c r="G277" s="13" t="str">
@@ -9754,203 +9782,269 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="40"/>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="40">
+        <f>EDATE(A276,1)</f>
+        <v>44197</v>
+      </c>
       <c r="B278" s="20"/>
-      <c r="C278" s="13"/>
-      <c r="D278" s="61"/>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D278" s="62"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="40"/>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="40">
+        <f t="shared" ref="A279:A310" si="0">EDATE(A278,1)</f>
+        <v>44228</v>
+      </c>
       <c r="B279" s="20"/>
-      <c r="C279" s="13"/>
-      <c r="D279" s="61"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D279" s="62"/>
       <c r="E279" s="9"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G279" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H279" s="39"/>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280" s="40"/>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="40">
+        <f t="shared" si="0"/>
+        <v>44256</v>
+      </c>
       <c r="B280" s="20"/>
-      <c r="C280" s="13"/>
-      <c r="D280" s="61"/>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D280" s="62"/>
       <c r="E280" s="9"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="40"/>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="40">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
       <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="61"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D281" s="62"/>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282" s="40"/>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="40">
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
       <c r="B282" s="20"/>
-      <c r="C282" s="13"/>
-      <c r="D282" s="61"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D282" s="62"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="40"/>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="40">
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
       <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
-      <c r="D283" s="61"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D283" s="62"/>
       <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H283" s="39"/>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="40"/>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="40">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
       <c r="B284" s="20"/>
-      <c r="C284" s="13"/>
-      <c r="D284" s="61"/>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D284" s="62"/>
       <c r="E284" s="9"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G284" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="40"/>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="40">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
       <c r="B285" s="20"/>
-      <c r="C285" s="13"/>
-      <c r="D285" s="61"/>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D285" s="62"/>
       <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G285" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="40"/>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="40">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
       <c r="B286" s="20"/>
-      <c r="C286" s="13"/>
-      <c r="D286" s="61"/>
+      <c r="C286" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D286" s="62"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G286" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="40"/>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="40">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
       <c r="B287" s="20"/>
-      <c r="C287" s="13"/>
-      <c r="D287" s="61"/>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D287" s="62"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="40"/>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="40">
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
       <c r="B288" s="20"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="61"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D288" s="62"/>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="40"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="13"/>
-      <c r="D289" s="61"/>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="40">
+        <f t="shared" si="0"/>
+        <v>44531</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D289" s="62">
+        <v>5</v>
+      </c>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="40"/>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="47" t="s">
+        <v>240</v>
+      </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
-      <c r="D290" s="61"/>
+      <c r="D290" s="62"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
       <c r="G290" s="13" t="str">
@@ -9962,69 +10056,424 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="40"/>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="40">
+        <f>EDATE(A289,1)</f>
+        <v>44562</v>
+      </c>
       <c r="B291" s="20"/>
-      <c r="C291" s="13"/>
-      <c r="D291" s="61"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D291" s="62"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G291" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="40">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
       <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="61"/>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="62"/>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40"/>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="40">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
       <c r="B293" s="20"/>
-      <c r="C293" s="13"/>
-      <c r="D293" s="39"/>
+      <c r="C293" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D293" s="62"/>
       <c r="E293" s="9"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G293" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="41"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="42"/>
-      <c r="D294" s="43"/>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D294" s="62"/>
       <c r="E294" s="9"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="42" t="str">
+      <c r="F294" s="20"/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D295" s="62"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="B296" s="15"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D296" s="63"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="15"/>
+      <c r="G296" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H296" s="42"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="12"/>
+      <c r="K296" s="15"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="40">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D297" s="62"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H297" s="39"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D298" s="62"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D299" s="62"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="20"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D300" s="62"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="40">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D301" s="62"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D302" s="62">
+        <v>5</v>
+      </c>
+      <c r="E302" s="9"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H302" s="39"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="20"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="62"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H294" s="43"/>
-      <c r="I294" s="9"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="15"/>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="40">
+        <f>EDATE(A302,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D304" s="62"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="40">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D305" s="62"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H305" s="39"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="40">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D306" s="62"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D307" s="62"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B308" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C308" s="13"/>
+      <c r="D308" s="62"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="64">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="62"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="20"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="62"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10078,34 +10527,34 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10121,7 +10570,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -10130,11 +10579,11 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>70.594999999999999</v>
       </c>
@@ -10150,7 +10599,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0.5</v>
       </c>
@@ -10159,22 +10608,22 @@
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="44" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10187,15 +10636,15 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10208,7 +10657,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -10222,7 +10671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10248,7 +10697,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10274,7 +10723,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10300,7 +10749,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10326,7 +10775,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10352,7 +10801,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10378,7 +10827,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10404,7 +10853,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10424,7 +10873,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10444,7 +10893,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10464,7 +10913,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10485,7 +10934,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10506,7 +10955,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10527,7 +10976,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10548,7 +10997,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10569,7 +11018,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10590,7 +11039,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10611,7 +11060,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10632,7 +11081,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10653,7 +11102,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10674,7 +11123,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10695,7 +11144,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10716,7 +11165,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10737,7 +11186,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10758,7 +11207,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10779,7 +11228,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10800,7 +11249,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10821,7 +11270,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10842,7 +11291,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10863,7 +11312,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10884,7 +11333,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10893,7 +11342,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10902,7 +11351,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10911,7 +11360,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10920,7 +11369,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10929,7 +11378,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10938,7 +11387,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10947,7 +11396,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10956,7 +11405,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10965,7 +11414,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10974,7 +11423,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10983,7 +11432,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10992,7 +11441,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11001,7 +11450,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11010,7 +11459,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11019,7 +11468,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11028,7 +11477,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11037,7 +11486,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11046,7 +11495,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11055,7 +11504,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11064,7 +11513,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11073,7 +11522,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11082,7 +11531,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11091,7 +11540,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11100,7 +11549,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11109,7 +11558,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11118,7 +11567,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11127,7 +11576,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11136,7 +11585,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11145,7 +11594,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
